--- a/data/hgb_hct_variants_goodpeaks.xlsx
+++ b/data/hgb_hct_variants_goodpeaks.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikbao/Documents/GitHub/ery-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{5FF64DC2-A94E-B143-9C30-D15FF9F82FAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B965FAD-7998-4043-9BF5-2B32550CDAFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="600" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hgb_hct_variants_goodpeaks" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hgb_hct_variants_goodpeaks!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hgb_hct_variants_goodpeaks!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
   <si>
     <t>var</t>
   </si>
@@ -221,12 +221,30 @@
   </si>
   <si>
     <t>SP3</t>
+  </si>
+  <si>
+    <t>SMIM1</t>
+  </si>
+  <si>
+    <t>HBS1L-Myb</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>RSID</t>
+  </si>
+  <si>
+    <t>rs1175550</t>
+  </si>
+  <si>
+    <t>Gene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -363,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +559,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -704,9 +728,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,7 +1099,7 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,86 +1124,92 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.30909999999999999</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="C2">
-        <v>-3.2674803108649901</v>
+        <v>-1.66296501272243</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1.5885994833718999E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.69</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.30909999999999999</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="C3">
-        <v>-3.2674803108649901</v>
+        <v>-1.66296501272243</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2.4018875935669802E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.68100000000000005</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.25669999999999998</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="C4">
-        <v>-3.2674803108649901</v>
+        <v>-1.66296501272243</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2.5054515137782299E-6</v>
+      </c>
+      <c r="F4">
+        <v>0.72599999999999998</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1188,13 +1220,13 @@
         <v>-1.66296501272243</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>1.5885994833718999E-5</v>
+        <v>5.3493259591186096E-7</v>
       </c>
       <c r="F5">
-        <v>0.69</v>
+        <v>0.753</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1203,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1214,13 +1246,13 @@
         <v>-1.66296501272243</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>2.4018875935669802E-5</v>
+        <v>8.3370259954553103E-4</v>
       </c>
       <c r="F6">
-        <v>0.68100000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1229,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1240,13 +1272,13 @@
         <v>-1.66296501272243</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>2.5054515137782299E-6</v>
+        <v>1.8526625341515801E-4</v>
       </c>
       <c r="F7">
-        <v>0.72599999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1255,709 +1287,739 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.98019999999999996</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="C8">
-        <v>-1.66296501272243</v>
+        <v>-0.570969859903254</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>5.3493259591186096E-7</v>
+        <v>3.0220941636946699E-5</v>
       </c>
       <c r="F8">
-        <v>0.753</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.98019999999999996</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="C9">
-        <v>-1.66296501272243</v>
+        <v>-0.570969859903254</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>8.3370259954553103E-4</v>
+        <v>3.0220941636946699E-5</v>
       </c>
       <c r="F9">
-        <v>0.59399999999999997</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.98019999999999996</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="C10">
-        <v>-1.66296501272243</v>
+        <v>-0.570969859903254</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>1.8526625341515801E-4</v>
+        <v>3.0220941636946699E-5</v>
       </c>
       <c r="F10">
-        <v>0.63400000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="C11">
+        <v>-0.570969859903254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>3.0220941636946699E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="C12">
+        <v>-5.3111336459562598E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.27510723813436899</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>6.9746390509401303E-4</v>
+      </c>
+      <c r="F13">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.27510723813436899</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2.32769589241955E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.628</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.59205590918568995</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="C16">
+        <v>-0.59205590918568995</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-5.18389315196182E-2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="C18">
+        <v>-3.2674803108649901</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="C19">
+        <v>-3.2674803108649901</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.55073502023809795</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.4584222400316299E-9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C21">
+        <v>-0.55073502023809795</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>3.4584222400316299E-9</v>
+      </c>
+      <c r="F21">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C22">
+        <v>-0.55073502023809795</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>3.4584222400316299E-9</v>
+      </c>
+      <c r="F22">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="C23">
+        <v>-0.61557048665155201</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.86285003464930798</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.07087883752856E-4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.2611</v>
+      </c>
+      <c r="C25">
+        <v>-0.75790048519653297</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>0.2611</v>
+      </c>
+      <c r="C26">
+        <v>-0.75790048519653297</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>0.2611</v>
+      </c>
+      <c r="C27">
+        <v>-0.75790048519653297</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="C28">
+        <v>-3.2674803108649901</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C29">
+        <v>-5.18389315196182E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11">
+      <c r="B30" s="2">
         <v>0.17749999999999999</v>
       </c>
-      <c r="C11">
+      <c r="C30" s="2">
         <v>-1.1336245641302001</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11">
+      <c r="E30" s="2">
         <v>1.5539526487297801E-5</v>
       </c>
-      <c r="F11">
+      <c r="F30" s="2">
         <v>0.69</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-0.27645492159611501</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="C32">
+        <v>-1.1174935630184399</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>1.05018587527152E-6</v>
+      </c>
+      <c r="F32">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>0.1222</v>
+      </c>
+      <c r="C33">
+        <v>-0.30758521213683698</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>1.8111643150347499E-9</v>
+      </c>
+      <c r="F33">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12">
+      <c r="B34" s="2">
         <v>0.1159</v>
       </c>
-      <c r="C12">
+      <c r="C34" s="2">
         <v>-1.1336245641302001</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12">
+      <c r="E34" s="2">
         <v>1.5539526487297801E-5</v>
       </c>
-      <c r="F12">
+      <c r="F34" s="2">
         <v>0.69</v>
       </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>0.13139999999999999</v>
-      </c>
-      <c r="C13">
-        <v>-1.1174935630184399</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13">
-        <v>1.05018587527152E-6</v>
-      </c>
-      <c r="F13">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>0.2611</v>
-      </c>
-      <c r="C14">
-        <v>-0.75790048519653297</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>0.2611</v>
-      </c>
-      <c r="C15">
-        <v>-0.75790048519653297</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>0.2611</v>
-      </c>
-      <c r="C16">
-        <v>-0.75790048519653297</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17">
-        <v>0.28189999999999998</v>
-      </c>
-      <c r="C17">
-        <v>-0.61557048665155201</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>0.36220000000000002</v>
-      </c>
-      <c r="C18">
-        <v>-0.59205590918568995</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>0.36220000000000002</v>
-      </c>
-      <c r="C19">
-        <v>-0.59205590918568995</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="C20">
-        <v>-0.570969859903254</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>3.0220941636946699E-5</v>
-      </c>
-      <c r="F20">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="C21">
-        <v>-0.570969859903254</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>3.0220941636946699E-5</v>
-      </c>
-      <c r="F21">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="C22">
-        <v>-0.570969859903254</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>3.0220941636946699E-5</v>
-      </c>
-      <c r="F22">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="C23">
-        <v>-0.570969859903254</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>3.0220941636946699E-5</v>
-      </c>
-      <c r="F23">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C24">
-        <v>-0.55073502023809795</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>3.4584222400316299E-9</v>
-      </c>
-      <c r="F24">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C25">
-        <v>-0.55073502023809795</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25">
-        <v>3.4584222400316299E-9</v>
-      </c>
-      <c r="F25">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C26">
-        <v>-0.55073502023809795</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26">
-        <v>3.4584222400316299E-9</v>
-      </c>
-      <c r="F26">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27">
-        <v>0.1222</v>
-      </c>
-      <c r="C27">
-        <v>-0.30758521213683698</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
-        <v>1.8111643150347499E-9</v>
-      </c>
-      <c r="F27">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28">
-        <v>0.17030000000000001</v>
-      </c>
-      <c r="C28">
-        <v>-0.27645492159611501</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>0.45590000000000003</v>
-      </c>
-      <c r="C29">
-        <v>-5.3111336459562598E-2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.33119999999999999</v>
-      </c>
-      <c r="C30">
-        <v>-5.18389315196182E-2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C31">
-        <v>-5.18389315196182E-2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32">
-        <v>0.11070000000000001</v>
-      </c>
-      <c r="C32">
-        <v>2.62315415731794E-2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33">
-        <v>0.11070000000000001</v>
-      </c>
-      <c r="C33">
-        <v>2.62315415731794E-2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34">
-        <v>0.11070000000000001</v>
-      </c>
-      <c r="C34">
-        <v>2.62315415731794E-2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1977,13 +2039,13 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2003,13 +2065,13 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2029,13 +2091,13 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2055,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2081,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2107,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -2133,13 +2195,13 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2159,13 +2221,13 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2185,96 +2247,93 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="C44">
+        <v>2.62315415731794E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="C45">
+        <v>2.62315415731794E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
         <v>65</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="C46">
+        <v>2.62315415731794E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44">
-        <v>0.44330000000000003</v>
-      </c>
-      <c r="C44">
-        <v>0.27510723813436899</v>
-      </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44">
-        <v>6.9746390509401303E-4</v>
-      </c>
-      <c r="F44">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45">
-        <v>0.44330000000000003</v>
-      </c>
-      <c r="C45">
-        <v>0.27510723813436899</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45">
-        <v>2.32769589241955E-4</v>
-      </c>
-      <c r="F45">
-        <v>0.628</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>0.26519999999999999</v>
-      </c>
-      <c r="C46">
-        <v>0.86285003464930798</v>
-      </c>
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46">
-        <v>2.07087883752856E-4</v>
-      </c>
-      <c r="F46">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
+      <c r="I46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState ref="A2:H46">
-      <sortCondition ref="C1:C46"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J1" xr:uid="{55B14C33-E0E9-B34D-88E5-62110A4B4DAD}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/hgb_hct_variants_goodpeaks.xlsx
+++ b/data/hgb_hct_variants_goodpeaks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikbao/Documents/GitHub/ery-final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikbao/Documents/GitHub/erythroid-profiling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B965FAD-7998-4043-9BF5-2B32550CDAFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88080966-8D3E-9C49-8B76-6893700C8665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="2160" windowWidth="27640" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hgb_hct_variants_goodpeaks" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="73">
   <si>
     <t>var</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Gene</t>
+  </si>
+  <si>
+    <t>rs218264</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1586,8 +1589,11 @@
       <c r="I18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -1938,7 +1944,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
